--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.643695666666666</v>
+        <v>31.35623066666667</v>
       </c>
       <c r="H2">
-        <v>19.931087</v>
+        <v>94.068692</v>
       </c>
       <c r="I2">
-        <v>0.02330062621916135</v>
+        <v>0.07215642027787079</v>
       </c>
       <c r="J2">
-        <v>0.0235018519445706</v>
+        <v>0.07299614919666826</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N2">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q2">
-        <v>1.586465804765111</v>
+        <v>43.13781173582223</v>
       </c>
       <c r="R2">
-        <v>14.278192242886</v>
+        <v>388.2403056224</v>
       </c>
       <c r="S2">
-        <v>0.002802825923069029</v>
+        <v>0.03302837149909521</v>
       </c>
       <c r="T2">
-        <v>0.002827031310265945</v>
+        <v>0.03341274309876396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.643695666666666</v>
+        <v>31.35623066666667</v>
       </c>
       <c r="H3">
-        <v>19.931087</v>
+        <v>94.068692</v>
       </c>
       <c r="I3">
-        <v>0.02330062621916135</v>
+        <v>0.07215642027787079</v>
       </c>
       <c r="J3">
-        <v>0.0235018519445706</v>
+        <v>0.07299614919666826</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N3">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q3">
-        <v>4.254784368194555</v>
+        <v>51.10449971337911</v>
       </c>
       <c r="R3">
-        <v>38.29305931375099</v>
+        <v>459.9404974204121</v>
       </c>
       <c r="S3">
-        <v>0.007516972561542372</v>
+        <v>0.03912804877877558</v>
       </c>
       <c r="T3">
-        <v>0.007581889626103233</v>
+        <v>0.0395834060979043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.643695666666666</v>
+        <v>139.9983773333333</v>
       </c>
       <c r="H4">
-        <v>19.931087</v>
+        <v>419.995132</v>
       </c>
       <c r="I4">
-        <v>0.02330062621916135</v>
+        <v>0.3221618650682612</v>
       </c>
       <c r="J4">
-        <v>0.0235018519445706</v>
+        <v>0.3259110620709639</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N4">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q4">
-        <v>7.347455704940999</v>
+        <v>192.6004343100445</v>
       </c>
       <c r="R4">
-        <v>66.127101344469</v>
+        <v>1733.4039087904</v>
       </c>
       <c r="S4">
-        <v>0.01298082773454995</v>
+        <v>0.147464102589069</v>
       </c>
       <c r="T4">
-        <v>0.01309293100820142</v>
+        <v>0.1491802336131926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>419.995132</v>
       </c>
       <c r="I5">
-        <v>0.490999290936783</v>
+        <v>0.3221618650682612</v>
       </c>
       <c r="J5">
-        <v>0.4952395927881096</v>
+        <v>0.3259110620709639</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N5">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q5">
-        <v>33.43058585243289</v>
+        <v>228.1698687052503</v>
       </c>
       <c r="R5">
-        <v>300.875272671896</v>
+        <v>2053.528818347253</v>
       </c>
       <c r="S5">
-        <v>0.05906216974179074</v>
+        <v>0.1746977624791922</v>
       </c>
       <c r="T5">
-        <v>0.05957223448592033</v>
+        <v>0.1767308284577713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>139.9983773333333</v>
+        <v>130.001713</v>
       </c>
       <c r="H6">
-        <v>419.995132</v>
+        <v>390.005139</v>
       </c>
       <c r="I6">
-        <v>0.490999290936783</v>
+        <v>0.2991577125385502</v>
       </c>
       <c r="J6">
-        <v>0.4952395927881096</v>
+        <v>0.3026391959814998</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,33 +806,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6404243333333333</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N6">
-        <v>1.921273</v>
+        <v>4.1272</v>
       </c>
       <c r="O6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q6">
-        <v>89.65836747144844</v>
+        <v>178.8476899645333</v>
       </c>
       <c r="R6">
-        <v>806.9253072430359</v>
+        <v>1609.6292096808</v>
       </c>
       <c r="S6">
-        <v>0.1584003864528496</v>
+        <v>0.1369343438670144</v>
       </c>
       <c r="T6">
-        <v>0.1597683425055873</v>
+        <v>0.138527933572253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>139.9983773333333</v>
+        <v>130.001713</v>
       </c>
       <c r="H7">
-        <v>419.995132</v>
+        <v>390.005139</v>
       </c>
       <c r="I7">
-        <v>0.490999290936783</v>
+        <v>0.2991577125385502</v>
       </c>
       <c r="J7">
-        <v>0.4952395927881096</v>
+        <v>0.3026391959814998</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105929</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N7">
-        <v>3.317787</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q7">
-        <v>154.828265445876</v>
+        <v>211.8772685203477</v>
       </c>
       <c r="R7">
-        <v>1393.454389012884</v>
+        <v>1906.895416683129</v>
       </c>
       <c r="S7">
-        <v>0.2735367347421427</v>
+        <v>0.1622233686715358</v>
       </c>
       <c r="T7">
-        <v>0.275899015796602</v>
+        <v>0.1641112624092468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.13145400000001</v>
+        <v>14.997169</v>
       </c>
       <c r="H8">
-        <v>276.394362</v>
+        <v>29.994338</v>
       </c>
       <c r="I8">
-        <v>0.3231214493241425</v>
+        <v>0.03451122811430998</v>
       </c>
       <c r="J8">
-        <v>0.3259119472027818</v>
+        <v>0.02327523775607825</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N8">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q8">
-        <v>22.00031558453733</v>
+        <v>20.63210529893334</v>
       </c>
       <c r="R8">
-        <v>198.002840260836</v>
+        <v>123.7926317936</v>
       </c>
       <c r="S8">
-        <v>0.03886819032016294</v>
+        <v>0.01579692643648263</v>
       </c>
       <c r="T8">
-        <v>0.03920385854293746</v>
+        <v>0.01065384336386323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.13145400000001</v>
+        <v>14.997169</v>
       </c>
       <c r="H9">
-        <v>276.394362</v>
+        <v>29.994338</v>
       </c>
       <c r="I9">
-        <v>0.3231214493241425</v>
+        <v>0.03451122811430998</v>
       </c>
       <c r="J9">
-        <v>0.3259119472027818</v>
+        <v>0.02327523775607825</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N9">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q9">
-        <v>59.00322500698066</v>
+        <v>24.44244102581967</v>
       </c>
       <c r="R9">
-        <v>531.0290250628259</v>
+        <v>146.654646154918</v>
       </c>
       <c r="S9">
-        <v>0.1042416219104864</v>
+        <v>0.01871430167782734</v>
       </c>
       <c r="T9">
-        <v>0.1051418593457156</v>
+        <v>0.01262139439221503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.13145400000001</v>
+        <v>118.2056323333333</v>
       </c>
       <c r="H10">
-        <v>276.394362</v>
+        <v>354.616897</v>
       </c>
       <c r="I10">
-        <v>0.3231214493241425</v>
+        <v>0.2720127740010079</v>
       </c>
       <c r="J10">
-        <v>0.3259119472027818</v>
+        <v>0.2751783549947898</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N10">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q10">
-        <v>101.890846790766</v>
+        <v>162.6194285887111</v>
       </c>
       <c r="R10">
-        <v>917.017621116894</v>
+        <v>1463.5748572984</v>
       </c>
       <c r="S10">
-        <v>0.1800116370934932</v>
+        <v>0.1245092109282478</v>
       </c>
       <c r="T10">
-        <v>0.1815662293141287</v>
+        <v>0.1259582016718362</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.323940500000001</v>
+        <v>118.2056323333333</v>
       </c>
       <c r="H11">
-        <v>14.647881</v>
+        <v>354.616897</v>
       </c>
       <c r="I11">
-        <v>0.02568636623409617</v>
+        <v>0.2720127740010079</v>
       </c>
       <c r="J11">
-        <v>0.01727213024375885</v>
+        <v>0.2751783549947898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N11">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q11">
-        <v>1.748903282503</v>
+        <v>192.6519729975186</v>
       </c>
       <c r="R11">
-        <v>10.493419695018</v>
+        <v>1733.867756977667</v>
       </c>
       <c r="S11">
-        <v>0.003089805933677649</v>
+        <v>0.14750356307276</v>
       </c>
       <c r="T11">
-        <v>0.002077659799289905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>7.323940500000001</v>
-      </c>
-      <c r="H12">
-        <v>14.647881</v>
-      </c>
-      <c r="I12">
-        <v>0.02568636623409617</v>
-      </c>
-      <c r="J12">
-        <v>0.01727213024375885</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.921273</v>
-      </c>
-      <c r="O12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q12">
-        <v>4.6904297120855</v>
-      </c>
-      <c r="R12">
-        <v>28.142578272513</v>
-      </c>
-      <c r="S12">
-        <v>0.008286631799991982</v>
-      </c>
-      <c r="T12">
-        <v>0.005572130461238499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.323940500000001</v>
-      </c>
-      <c r="H13">
-        <v>14.647881</v>
-      </c>
-      <c r="I13">
-        <v>0.02568636623409617</v>
-      </c>
-      <c r="J13">
-        <v>0.01727213024375885</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>1.105929</v>
-      </c>
-      <c r="N13">
-        <v>3.317787</v>
-      </c>
-      <c r="O13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q13">
-        <v>8.099758193224501</v>
-      </c>
-      <c r="R13">
-        <v>48.59854915934701</v>
-      </c>
-      <c r="S13">
-        <v>0.01430992850042654</v>
-      </c>
-      <c r="T13">
-        <v>0.009622339983230442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>39.03202233333334</v>
-      </c>
-      <c r="H14">
-        <v>117.096067</v>
-      </c>
-      <c r="I14">
-        <v>0.1368922672858171</v>
-      </c>
-      <c r="J14">
-        <v>0.1380744778207791</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.2387926666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.716378</v>
-      </c>
-      <c r="O14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="P14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="Q14">
-        <v>9.320560698369556</v>
-      </c>
-      <c r="R14">
-        <v>83.885046285326</v>
-      </c>
-      <c r="S14">
-        <v>0.0164667332031127</v>
-      </c>
-      <c r="T14">
-        <v>0.01660894098339939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>39.03202233333334</v>
-      </c>
-      <c r="H15">
-        <v>117.096067</v>
-      </c>
-      <c r="I15">
-        <v>0.1368922672858171</v>
-      </c>
-      <c r="J15">
-        <v>0.1380744778207791</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N15">
-        <v>1.921273</v>
-      </c>
-      <c r="O15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q15">
-        <v>24.99705688147678</v>
-      </c>
-      <c r="R15">
-        <v>224.973511933291</v>
-      </c>
-      <c r="S15">
-        <v>0.04416256487684427</v>
-      </c>
-      <c r="T15">
-        <v>0.04454395566306991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>39.03202233333334</v>
-      </c>
-      <c r="H16">
-        <v>117.096067</v>
-      </c>
-      <c r="I16">
-        <v>0.1368922672858171</v>
-      </c>
-      <c r="J16">
-        <v>0.1380744778207791</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>1.105929</v>
-      </c>
-      <c r="N16">
-        <v>3.317787</v>
-      </c>
-      <c r="O16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q16">
-        <v>43.166645427081</v>
-      </c>
-      <c r="R16">
-        <v>388.499808843729</v>
-      </c>
-      <c r="S16">
-        <v>0.07626296920586015</v>
-      </c>
-      <c r="T16">
-        <v>0.07692158117430983</v>
+        <v>0.1492201533229536</v>
       </c>
     </row>
   </sheetData>
